--- a/Data_Sources/Puu_nimetused_EE_ENG.xlsx
+++ b/Data_Sources/Puu_nimetused_EE_ENG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opilane\Desktop\Andmetarkus,git\Andmetarkus\Timber AS\Timber-AS\Data_Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34439F21-EF6A-4DDB-8967-E0F1C67BAB34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F42D22-2C94-4F1A-B40F-8C3878BBC5C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{F791A6DC-4537-46A0-9938-B0BDE1941023}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
